--- a/IOCP 채팅서버 패킷설계.xlsx
+++ b/IOCP 채팅서버 패킷설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0F659ABC-C7D9-4B08-84F0-9348BB6F72D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BFA486DA-F6B9-4C93-963D-43B5C989FC1C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
   <si>
     <t>흐름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -134,208 +134,219 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Nickname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_CREATE_ID(ID 생성 답장), 헤더번호:4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID생성 성공 유무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID생성 에러 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널에서 쓰일 별명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기실 입장 성공 유무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기실 입장 에러 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_WAITINGCHANNAL_ENTER(채널 대기실 입장 답장), 헤더번호:6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_REQ_WAITINGCHANNAL_ENTER(채널 대기실 입장 요청), 헤더번호:5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannalList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 리스트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_REQ_WAITINGCHANNAL_CHREAT_CHANNAL(채널 생성 요청), 헤더번호:7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannalName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 이름</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_WAITINGCHANNAL_CHREAT_CHANNAL(채널 생성 답장), 헤더번호:8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 생성 성공 유무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 생성 에러 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_REQ_WAITINGCHANNAL_CHANNAL_JOIN(채널 들어가기 요청), 헤더번호:9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChannalNumber</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 입장 성공 유무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 입장 에러 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_SEND_CHANNAL_MESSAGE(채널에 메시지 보내기), 헤더번호:11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_CHANNAL_MESSAGE(채널에 메시지 받기), 헤더번호:12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 보낸 사람</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_REQ_CHANNAL_OUT(채널 나가기 요청), 헤더번호:13</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 나가기 성공 유무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 나기기 에러 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_CHANNAL_OUT(채널 나가기 답장), 헤더번호:14</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_REQ_EXIT(접속 종료 요청), 헤더번호:15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_EXIT(접속 종료 답장), 헤더번호:16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 종료 성공 유무</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속 종료 에러 번호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOCP 채팅서버 패킷 설계</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B177042 한진욱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_CREATE_ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_WAITINGCHANNAL_ENTER</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_WAITINGCHANNAL_CHREAT_CHANNAL</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_RECV_CHANNAL_MESSAGE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_WAITINGCHANNAL_CHANNAL_JOINL(채널 들어가기 답장), 헤더번호:10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_WAITINGCHANNAL_CHANNAL_JOIN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_CHANNAL_OUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK_ANS_EXIT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>PK_REQ_CREATE_ID</t>
-  </si>
-  <si>
-    <t>Nickname</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_CREATE_ID(ID 생성 답장), 헤더번호:4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID생성 성공 유무</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID생성 에러 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널에서 쓰일 별명</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PK_REQ_WAITINGCHANNAL_ENTER</t>
-  </si>
-  <si>
-    <t>대기실 입장 성공 유무</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기실 입장 에러 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_WAITINGCHANNAL_ENTER(채널 대기실 입장 답장), 헤더번호:6</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_REQ_WAITINGCHANNAL_ENTER(채널 대기실 입장 요청), 헤더번호:5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChannalList</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 리스트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_REQ_WAITINGCHANNAL_CHREAT_CHANNAL(채널 생성 요청), 헤더번호:7</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PK_REQ_WAITINGCHANNAL_CHREAT_CHANNAL</t>
-  </si>
-  <si>
-    <t>ChannalName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 이름</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_WAITINGCHANNAL_CHREAT_CHANNAL(채널 생성 답장), 헤더번호:8</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 생성 성공 유무</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 생성 에러 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_REQ_WAITINGCHANNAL_CHANNAL_JOIN(채널 들어가기 요청), 헤더번호:9</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PK_REQ_WAITINGCHANNAL_CHANNAL_JOIN</t>
-  </si>
-  <si>
-    <t>ChannalNumber</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 입장 성공 유무</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 입장 에러 번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PK_REQ_CHANNAL_SEND_MESSAGE</t>
-  </si>
-  <si>
-    <t>PK_SEND_CHANNAL_MESSAGE(채널에 메시지 보내기), 헤더번호:11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_RECV_CHANNAL_MESSAGE(채널에 메시지 받기), 헤더번호:12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>메시지 보낸 사람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_REQ_CHANNAL_OUT(채널 나가기 요청), 헤더번호:13</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 나가기 성공 유무</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>채널 나기기 에러 번호</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PK_REQ_CHANNAL_OUT</t>
-  </si>
-  <si>
-    <t>PK_ANS_CHANNAL_OUT(채널 나가기 답장), 헤더번호:14</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_REQ_EXIT(접속 종료 요청), 헤더번호:15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>PK_REQ_EXIT</t>
-  </si>
-  <si>
-    <t>PK_ANS_EXIT(접속 종료 답장), 헤더번호:16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속 종료 성공 유무</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>접속 종료 에러 번호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOCP 채팅서버 패킷 설계</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B177042 한진욱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_CREATE_ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_WAITINGCHANNAL_ENTER</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_WAITINGCHANNAL_CHREAT_CHANNAL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_RECV_CHANNAL_MESSAGE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_WAITINGCHANNAL_CHANNAL_JOINL(채널 들어가기 답장), 헤더번호:10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_WAITINGCHANNAL_CHANNAL_JOIN</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_CHANNAL_OUT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK_ANS_EXIT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -772,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BDCE81-4F2B-4799-B5CB-67339998E8C9}">
   <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -785,11 +796,11 @@
   <sheetData>
     <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C2" s="4"/>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -971,17 +982,17 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1024,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1">
         <v>4</v>
@@ -1069,7 +1080,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1">
@@ -1079,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1092,7 +1103,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1122,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1">
         <v>4</v>
@@ -1145,7 +1156,7 @@
         <v>21</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1161,7 +1172,7 @@
         <v>12</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1174,7 +1185,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1204,7 +1215,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -1227,7 +1238,7 @@
         <v>21</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1243,7 +1254,7 @@
         <v>12</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1256,7 +1267,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1286,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1">
         <v>4</v>
@@ -1309,7 +1320,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1325,13 +1336,13 @@
         <v>12</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
@@ -1341,7 +1352,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1354,7 +1365,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1384,7 +1395,7 @@
         <v>8</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D46" s="1">
         <v>4</v>
@@ -1397,7 +1408,7 @@
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
@@ -1407,7 +1418,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1420,7 +1431,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1450,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
@@ -1473,7 +1484,7 @@
         <v>21</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1489,7 +1500,7 @@
         <v>12</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1502,7 +1513,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1532,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -1545,7 +1556,7 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
@@ -1555,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1568,7 +1579,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1598,7 +1609,7 @@
         <v>8</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D62" s="1">
         <v>4</v>
@@ -1621,7 +1632,7 @@
         <v>21</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1637,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1650,7 +1661,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1680,7 +1691,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D68" s="1">
         <v>4</v>
@@ -1693,7 +1704,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1">
@@ -1703,7 +1714,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1716,7 +1727,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1746,7 +1757,7 @@
         <v>8</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D73" s="1">
         <v>4</v>
@@ -1759,7 +1770,7 @@
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1">
@@ -1769,13 +1780,13 @@
         <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
@@ -1785,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1798,7 +1809,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1828,7 +1839,7 @@
         <v>8</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D79" s="1">
         <v>4</v>
@@ -1848,7 +1859,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -1878,7 +1889,7 @@
         <v>8</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D83" s="1">
         <v>4</v>
@@ -1901,7 +1912,7 @@
         <v>21</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -1917,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -1930,7 +1941,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -1960,7 +1971,7 @@
         <v>8</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D89" s="1">
         <v>4</v>
@@ -1980,7 +1991,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2010,7 +2021,7 @@
         <v>8</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D93" s="1">
         <v>4</v>
@@ -2033,7 +2044,7 @@
         <v>21</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2049,7 +2060,7 @@
         <v>12</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">

--- a/IOCP 채팅서버 패킷설계.xlsx
+++ b/IOCP 채팅서버 패킷설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BFA486DA-F6B9-4C93-963D-43B5C989FC1C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5057B170-A52F-4BE5-884A-B4FFC0635E46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
   <si>
     <t>흐름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BDCE81-4F2B-4799-B5CB-67339998E8C9}">
   <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1227,35 +1227,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1">
-        <v>1</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1">
-        <v>4</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
@@ -1346,7 +1330,7 @@
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>14</v>
@@ -2073,11 +2057,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A91:F91"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A77:F77"/>
@@ -2090,6 +2069,11 @@
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A66:F66"/>
     <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A91:F91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IOCP 채팅서버 패킷설계.xlsx
+++ b/IOCP 채팅서버 패킷설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5057B170-A52F-4BE5-884A-B4FFC0635E46}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8EE271D-1707-4AD8-A54A-F627781962E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
   </bookViews>
@@ -459,11 +459,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BDCE81-4F2B-4799-B5CB-67339998E8C9}">
   <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,23 +795,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="3"/>
       <c r="F2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -906,14 +906,14 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1004,14 +1004,14 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1102,14 +1102,14 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -1184,14 +1184,14 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -1250,14 +1250,14 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -1348,14 +1348,14 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -1414,14 +1414,14 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -1496,14 +1496,14 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -1562,14 +1562,14 @@
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -1644,14 +1644,14 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
@@ -1710,14 +1710,14 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -1774,7 +1774,7 @@
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
-        <v>512</v>
+        <v>64</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>14</v>
@@ -1792,14 +1792,14 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
@@ -1842,14 +1842,14 @@
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+      <c r="A81" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
@@ -1924,14 +1924,14 @@
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
@@ -1974,14 +1974,14 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+      <c r="A91" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -2057,6 +2057,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A91:F91"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A77:F77"/>
@@ -2073,7 +2074,6 @@
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A91:F91"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IOCP 채팅서버 패킷설계.xlsx
+++ b/IOCP 채팅서버 패킷설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F8EE271D-1707-4AD8-A54A-F627781962E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD33BDD7-1700-4C95-9C08-EE4005309BA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
   </bookViews>
@@ -459,11 +459,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -783,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BDCE81-4F2B-4799-B5CB-67339998E8C9}">
   <dimension ref="A2:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="C95" sqref="C95"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,23 +795,23 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
       <c r="F2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -906,14 +906,14 @@
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1004,14 +1004,14 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1102,14 +1102,14 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -1184,14 +1184,14 @@
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
@@ -1250,14 +1250,14 @@
       <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
@@ -1348,14 +1348,14 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
@@ -1414,14 +1414,14 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
@@ -1496,14 +1496,14 @@
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -1562,14 +1562,14 @@
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -1644,14 +1644,14 @@
       <c r="F65" s="1"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
@@ -1710,14 +1710,14 @@
       <c r="F70" s="1"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -1792,14 +1792,14 @@
       <c r="F76" s="1"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
@@ -1842,14 +1842,14 @@
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
@@ -1924,14 +1924,14 @@
       <c r="F86" s="1"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
@@ -1974,14 +1974,14 @@
       <c r="F90" s="1"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
-      <c r="F91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
@@ -2057,6 +2057,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A31:F31"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A71:F71"/>
@@ -2073,7 +2074,6 @@
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A31:F31"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IOCP 채팅서버 패킷설계.xlsx
+++ b/IOCP 채팅서버 패킷설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FD33BDD7-1700-4C95-9C08-EE4005309BA0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83C2B1EB-90E1-44B6-B2C8-DF489F0344B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="98">
   <si>
     <t>흐름</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -347,6 +347,74 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>UINT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 길이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 길이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NicknameLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>별명 길이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 길이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 리시트 길이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>채널 이름 길이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>메시지 길이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NicknameLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MessageLength</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -781,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BDCE81-4F2B-4799-B5CB-67339998E8C9}">
-  <dimension ref="A2:F96"/>
+  <dimension ref="A2:F105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,23 +936,23 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1">
@@ -894,229 +962,241 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1">
+        <v>15</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1">
-        <v>4</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="D15" s="1">
         <v>4</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="1">
+        <v>4</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1">
+        <v>4</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1">
-        <v>15</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D23" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1">
+        <v>15</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -1125,54 +1205,56 @@
       <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>65</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1185,7 +1267,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1195,7 +1277,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
@@ -1215,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -1227,19 +1309,35 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="D35" s="1">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
@@ -1251,7 +1349,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1261,7 +1359,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>7</v>
@@ -1281,7 +1379,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D39" s="1">
         <v>4</v>
@@ -1293,116 +1391,116 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1">
-        <v>4</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B42" s="1" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>38</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1">
         <v>4</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1">
         <v>4</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1415,7 +1513,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1425,7 +1523,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>7</v>
@@ -1445,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
@@ -1458,33 +1556,33 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1497,7 +1595,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1507,7 +1605,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>7</v>
@@ -1527,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -1540,99 +1638,99 @@
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="1" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
+      <c r="D59" s="1">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" s="1" t="s">
+      <c r="A61" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1">
-        <v>4</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1">
         <v>4</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D63" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>48</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1">
         <v>4</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1645,7 +1743,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1655,7 +1753,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>7</v>
@@ -1675,7 +1773,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D68" s="1">
         <v>4</v>
@@ -1688,392 +1786,522 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="D70" s="1">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B72" s="1" t="s">
+      <c r="A72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1">
-        <v>4</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="C73" s="1"/>
       <c r="D73" s="1">
         <v>4</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D74" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="F74" s="1"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
+      <c r="D76" s="1">
+        <v>64</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B78" s="1" t="s">
+      <c r="A78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1">
-        <v>4</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="C79" s="1"/>
       <c r="D79" s="1">
         <v>4</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79" s="1"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="F80" s="1"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="A82" s="1"/>
       <c r="B82" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F82" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C83" s="1"/>
       <c r="D83" s="1">
         <v>4</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F83" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
       <c r="B84" s="1" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1"/>
-      <c r="B85" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1">
-        <v>4</v>
-      </c>
-      <c r="E85" s="1" t="s">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" s="1"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D88" s="1">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1">
-        <v>4</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F88" s="1"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1">
+        <v>4</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" s="1">
-        <v>4</v>
-      </c>
-      <c r="E89" s="1" t="s">
+      <c r="C92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="1">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1">
-        <v>4</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1"/>
       <c r="B93" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>72</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C93" s="1"/>
       <c r="D93" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F93" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1"/>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C94" s="1"/>
       <c r="D94" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1"/>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="1"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D98" s="1">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="1"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F101" s="1"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D102" s="1">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1">
+        <v>1</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1">
-        <v>4</v>
-      </c>
-      <c r="E95" s="1" t="s">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1">
+        <v>4</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="F104" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A100:F100"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="A49:F49"/>
     <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A61:F61"/>
     <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A72:F72"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IOCP 채팅서버 패킷설계.xlsx
+++ b/IOCP 채팅서버 패킷설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\totol\Desktop\ChattingServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{83C2B1EB-90E1-44B6-B2C8-DF489F0344B8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B868B79B-7254-433D-B514-3025639D14B2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480" xr2:uid="{D9DFE31C-F1BC-47CA-9267-43BFB3593CC7}"/>
   </bookViews>
@@ -282,10 +282,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>B177042 한진욱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>PK_ANS_CREATE_ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -415,6 +411,10 @@
   </si>
   <si>
     <t>MessageLength</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 한진욱</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -852,7 +852,7 @@
   <dimension ref="A2:F105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -868,7 +868,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -936,17 +936,17 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -968,17 +968,17 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1082,7 +1082,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1">
@@ -1092,7 +1092,7 @@
         <v>11</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>32</v>
@@ -1151,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="1">
         <v>4</v>
@@ -1164,17 +1164,17 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1196,7 +1196,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1">
@@ -1206,7 +1206,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1228,7 +1228,7 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1">
@@ -1238,7 +1238,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1297,7 +1297,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D33" s="1">
         <v>4</v>
@@ -1379,7 +1379,7 @@
         <v>8</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1">
         <v>4</v>
@@ -1429,7 +1429,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1">
         <v>4</v>
@@ -1474,7 +1474,7 @@
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1">
@@ -1484,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1543,7 +1543,7 @@
         <v>8</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D51" s="1">
         <v>4</v>
@@ -1556,7 +1556,7 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1">
@@ -1566,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1625,7 +1625,7 @@
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D57" s="1">
         <v>4</v>
@@ -1707,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D63" s="1">
         <v>4</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1773,7 +1773,7 @@
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D68" s="1">
         <v>4</v>
@@ -1855,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" s="1">
         <v>4</v>
@@ -1868,7 +1868,7 @@
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1">
@@ -1878,7 +1878,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1937,7 +1937,7 @@
         <v>8</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
@@ -1950,7 +1950,7 @@
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1"/>
       <c r="B81" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1">
@@ -1960,7 +1960,7 @@
         <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -1982,7 +1982,7 @@
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1">
@@ -1992,7 +1992,7 @@
         <v>11</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2051,7 +2051,7 @@
         <v>8</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D88" s="1">
         <v>4</v>
@@ -2101,7 +2101,7 @@
         <v>8</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D92" s="1">
         <v>4</v>
@@ -2183,7 +2183,7 @@
         <v>8</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D98" s="1">
         <v>4</v>
@@ -2233,7 +2233,7 @@
         <v>8</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D102" s="1">
         <v>4</v>
@@ -2285,6 +2285,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A21:F21"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A37:F37"/>
     <mergeCell ref="A100:F100"/>
@@ -2301,7 +2302,6 @@
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
